--- a/2017/LightMeterReadings.xlsx
+++ b/2017/LightMeterReadings.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebatzer\Box Sync\Eviner lab shared\Evan\Research Projects\Spatial Scaling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebatz\Box Sync\Eviner lab shared\Evan\Research Projects\Spatial-Scaling\2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9567" windowHeight="8013" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,12 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="19">
   <si>
     <t>Site</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>Plot</t>
   </si>
   <si>
     <t>Overhead</t>
@@ -81,13 +75,19 @@
     <t>Error Checking</t>
   </si>
   <si>
-    <t>Decrease</t>
+    <t>Interception</t>
+  </si>
+  <si>
+    <t>BlockNo</t>
+  </si>
+  <si>
+    <t>PlotNo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +126,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -143,7 +149,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,6 +170,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -447,20 +456,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M242"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C200" sqref="C195:C200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
     <col min="3" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="10" max="10" width="12" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -469,41 +478,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>42888</v>
@@ -530,8 +539,8 @@
         <v>224</v>
       </c>
       <c r="J2" s="7">
-        <f>(AVERAGE(H2:I2) / G2)</f>
-        <v>0.25578406169665807</v>
+        <f xml:space="preserve"> 1 - (AVERAGE(H2:I2) / G2)</f>
+        <v>0.74421593830334198</v>
       </c>
       <c r="K2" s="6">
         <f>IF(H2=I2, 1,0)</f>
@@ -548,7 +557,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>42888</v>
@@ -575,8 +584,8 @@
         <v>237</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J66" si="0">(AVERAGE(H3:I3) / G3)</f>
-        <v>0.23456790123456789</v>
+        <f t="shared" ref="J3:J66" si="0" xml:space="preserve"> 1 - (AVERAGE(H3:I3) / G3)</f>
+        <v>0.76543209876543217</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" ref="K3:K66" si="1">IF(H3=I3, 1,0)</f>
@@ -593,7 +602,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>42888</v>
@@ -621,7 +630,7 @@
       </c>
       <c r="J4" s="7">
         <f t="shared" si="0"/>
-        <v>0.33172147001934238</v>
+        <v>0.66827852998065762</v>
       </c>
       <c r="K4" s="6">
         <f t="shared" si="1"/>
@@ -638,7 +647,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>42888</v>
@@ -666,7 +675,7 @@
       </c>
       <c r="J5" s="7">
         <f t="shared" si="0"/>
-        <v>0.43377693282636248</v>
+        <v>0.56622306717363746</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" si="1"/>
@@ -683,7 +692,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>42888</v>
@@ -711,7 +720,7 @@
       </c>
       <c r="J6" s="7">
         <f t="shared" si="0"/>
-        <v>0.34425176621708414</v>
+        <v>0.65574823378291591</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" si="1"/>
@@ -728,7 +737,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>42888</v>
@@ -756,7 +765,7 @@
       </c>
       <c r="J7" s="7">
         <f t="shared" si="0"/>
-        <v>0.23989737010904427</v>
+        <v>0.76010262989095567</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" si="1"/>
@@ -773,7 +782,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>42888</v>
@@ -801,7 +810,7 @@
       </c>
       <c r="J8" s="7">
         <f t="shared" si="0"/>
-        <v>0.53183646112600536</v>
+        <v>0.46816353887399464</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="1"/>
@@ -818,7 +827,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>42888</v>
@@ -846,7 +855,7 @@
       </c>
       <c r="J9" s="7">
         <f t="shared" si="0"/>
-        <v>0.25951903807615229</v>
+        <v>0.74048096192384771</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="1"/>
@@ -863,7 +872,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>42888</v>
@@ -891,7 +900,7 @@
       </c>
       <c r="J10" s="7">
         <f t="shared" si="0"/>
-        <v>0.2874015748031496</v>
+        <v>0.71259842519685046</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="1"/>
@@ -908,7 +917,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>42888</v>
@@ -936,7 +945,7 @@
       </c>
       <c r="J11" s="7">
         <f t="shared" si="0"/>
-        <v>0.2206172028890348</v>
+        <v>0.77938279711096525</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="1"/>
@@ -953,7 +962,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
         <v>42888</v>
@@ -981,7 +990,7 @@
       </c>
       <c r="J12" s="7">
         <f t="shared" si="0"/>
-        <v>0.36990595611285265</v>
+        <v>0.6300940438871474</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="1"/>
@@ -998,7 +1007,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
         <v>42888</v>
@@ -1026,7 +1035,7 @@
       </c>
       <c r="J13" s="7">
         <f t="shared" si="0"/>
-        <v>0.21044202434336964</v>
+        <v>0.78955797565663033</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="1"/>
@@ -1043,7 +1052,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2">
         <v>42888</v>
@@ -1071,7 +1080,7 @@
       </c>
       <c r="J14" s="7">
         <f t="shared" si="0"/>
-        <v>0.22244094488188976</v>
+        <v>0.77755905511811019</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="1"/>
@@ -1088,7 +1097,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
         <v>42888</v>
@@ -1116,7 +1125,7 @@
       </c>
       <c r="J15" s="7">
         <f t="shared" si="0"/>
-        <v>0.20146871008939973</v>
+        <v>0.79853128991060029</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="1"/>
@@ -1133,7 +1142,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2">
         <v>42888</v>
@@ -1161,7 +1170,7 @@
       </c>
       <c r="J16" s="7">
         <f t="shared" si="0"/>
-        <v>3.6491677336747762E-2</v>
+        <v>0.96350832266325226</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="1"/>
@@ -1178,7 +1187,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2">
         <v>42888</v>
@@ -1206,7 +1215,7 @@
       </c>
       <c r="J17" s="7">
         <f t="shared" si="0"/>
-        <v>0.1172279792746114</v>
+        <v>0.88277202072538863</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="1"/>
@@ -1223,7 +1232,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2">
         <v>42888</v>
@@ -1251,7 +1260,7 @@
       </c>
       <c r="J18" s="7">
         <f t="shared" si="0"/>
-        <v>0.26960154241645246</v>
+        <v>0.7303984575835476</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="1"/>
@@ -1268,7 +1277,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2">
         <v>42888</v>
@@ -1296,7 +1305,7 @@
       </c>
       <c r="J19" s="7">
         <f t="shared" si="0"/>
-        <v>0.24058162590879048</v>
+        <v>0.75941837409120949</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="1"/>
@@ -1313,7 +1322,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2">
         <v>42888</v>
@@ -1341,7 +1350,7 @@
       </c>
       <c r="J20" s="7">
         <f t="shared" si="0"/>
-        <v>0.58697027197975959</v>
+        <v>0.41302972802024041</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="1"/>
@@ -1358,7 +1367,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2">
         <v>42888</v>
@@ -1386,7 +1395,7 @@
       </c>
       <c r="J21" s="7">
         <f t="shared" si="0"/>
-        <v>2.7278562259306804E-2</v>
+        <v>0.9727214377406932</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="1"/>
@@ -1403,7 +1412,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2">
         <v>42888</v>
@@ -1431,7 +1440,7 @@
       </c>
       <c r="J22" s="7">
         <f t="shared" si="0"/>
-        <v>0.17261518494484102</v>
+        <v>0.82738481505515904</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="1"/>
@@ -1448,7 +1457,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2">
         <v>42888</v>
@@ -1476,7 +1485,7 @@
       </c>
       <c r="J23" s="7">
         <f t="shared" si="0"/>
-        <v>0.11940298507462686</v>
+        <v>0.88059701492537312</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="1"/>
@@ -1493,7 +1502,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2">
         <v>42888</v>
@@ -1521,7 +1530,7 @@
       </c>
       <c r="J24" s="7">
         <f t="shared" si="0"/>
-        <v>0.15453960077269802</v>
+        <v>0.84546039922730198</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="1"/>
@@ -1538,7 +1547,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2">
         <v>42888</v>
@@ -1566,7 +1575,7 @@
       </c>
       <c r="J25" s="7">
         <f t="shared" si="0"/>
-        <v>3.3870967741935487E-2</v>
+        <v>0.96612903225806446</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="1"/>
@@ -1583,7 +1592,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2">
         <v>42888</v>
@@ -1611,7 +1620,7 @@
       </c>
       <c r="J26" s="7">
         <f t="shared" si="0"/>
-        <v>5.6425309849967381E-2</v>
+        <v>0.94357469015003259</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="1"/>
@@ -1628,7 +1637,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2">
         <v>42888</v>
@@ -1656,7 +1665,7 @@
       </c>
       <c r="J27" s="7">
         <f t="shared" si="0"/>
-        <v>0.16569010416666666</v>
+        <v>0.83430989583333337</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="1"/>
@@ -1673,7 +1682,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2">
         <v>42888</v>
@@ -1701,7 +1710,7 @@
       </c>
       <c r="J28" s="7">
         <f t="shared" si="0"/>
-        <v>7.3289902280130298E-2</v>
+        <v>0.92671009771986967</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="1"/>
@@ -1718,7 +1727,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2">
         <v>42888</v>
@@ -1746,7 +1755,7 @@
       </c>
       <c r="J29" s="7">
         <f t="shared" si="0"/>
-        <v>5.6139198949441894E-2</v>
+        <v>0.94386080105055814</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="1"/>
@@ -1763,7 +1772,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2">
         <v>42888</v>
@@ -1791,7 +1800,7 @@
       </c>
       <c r="J30" s="7">
         <f t="shared" si="0"/>
-        <v>0.23296199213630406</v>
+        <v>0.76703800786369591</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="1"/>
@@ -1808,7 +1817,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2">
         <v>42888</v>
@@ -1836,7 +1845,7 @@
       </c>
       <c r="J31" s="7">
         <f t="shared" si="0"/>
-        <v>0.22885732730794062</v>
+        <v>0.77114267269205938</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" si="1"/>
@@ -1853,7 +1862,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2">
         <v>42888</v>
@@ -1881,7 +1890,7 @@
       </c>
       <c r="J32" s="7">
         <f t="shared" si="0"/>
-        <v>0.12716207559256887</v>
+        <v>0.87283792440743113</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" si="1"/>
@@ -1898,7 +1907,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B33" s="2">
         <v>42888</v>
@@ -1926,7 +1935,7 @@
       </c>
       <c r="J33" s="7">
         <f t="shared" si="0"/>
-        <v>0.11441499676793794</v>
+        <v>0.88558500323206202</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" si="1"/>
@@ -1943,7 +1952,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B34" s="2">
         <v>42888</v>
@@ -1971,7 +1980,7 @@
       </c>
       <c r="J34" s="7">
         <f t="shared" si="0"/>
-        <v>0.15699208443271767</v>
+        <v>0.84300791556728227</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" si="1"/>
@@ -1988,7 +1997,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B35" s="2">
         <v>42888</v>
@@ -2016,7 +2025,7 @@
       </c>
       <c r="J35" s="7">
         <f t="shared" si="0"/>
-        <v>5.9609120521172641E-2</v>
+        <v>0.94039087947882738</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" si="1"/>
@@ -2033,7 +2042,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" s="2">
         <v>42888</v>
@@ -2061,7 +2070,7 @@
       </c>
       <c r="J36" s="7">
         <f t="shared" si="0"/>
-        <v>0.22931833223031106</v>
+        <v>0.77068166776968894</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" si="1"/>
@@ -2078,7 +2087,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B37" s="2">
         <v>42888</v>
@@ -2106,7 +2115,7 @@
       </c>
       <c r="J37" s="7">
         <f t="shared" si="0"/>
-        <v>0.27921646746347939</v>
+        <v>0.72078353253652061</v>
       </c>
       <c r="K37" s="6">
         <f t="shared" si="1"/>
@@ -2123,7 +2132,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38" s="2">
         <v>42888</v>
@@ -2151,7 +2160,7 @@
       </c>
       <c r="J38" s="7">
         <f t="shared" si="0"/>
-        <v>6.2087186261558784E-2</v>
+        <v>0.93791281373844126</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" si="1"/>
@@ -2168,7 +2177,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B39" s="2">
         <v>42888</v>
@@ -2196,7 +2205,7 @@
       </c>
       <c r="J39" s="7">
         <f t="shared" si="0"/>
-        <v>0.12317922735908803</v>
+        <v>0.87682077264091196</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" si="1"/>
@@ -2213,7 +2222,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" s="2">
         <v>42888</v>
@@ -2241,7 +2250,7 @@
       </c>
       <c r="J40" s="7">
         <f t="shared" si="0"/>
-        <v>7.7305905773059055E-2</v>
+        <v>0.92269409422694093</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" si="1"/>
@@ -2258,7 +2267,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" s="2">
         <v>42888</v>
@@ -2286,7 +2295,7 @@
       </c>
       <c r="J41" s="7">
         <f t="shared" si="0"/>
-        <v>0.12373907195696032</v>
+        <v>0.87626092804303968</v>
       </c>
       <c r="K41" s="6">
         <f t="shared" si="1"/>
@@ -2303,7 +2312,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42" s="2">
         <v>42888</v>
@@ -2331,7 +2340,7 @@
       </c>
       <c r="J42" s="7">
         <f t="shared" si="0"/>
-        <v>0.5051112447384245</v>
+        <v>0.4948887552615755</v>
       </c>
       <c r="K42" s="6">
         <f t="shared" si="1"/>
@@ -2348,7 +2357,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43" s="2">
         <v>42888</v>
@@ -2376,7 +2385,7 @@
       </c>
       <c r="J43" s="7">
         <f t="shared" si="0"/>
-        <v>0.51323891625615758</v>
+        <v>0.48676108374384242</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" si="1"/>
@@ -2393,7 +2402,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44" s="2">
         <v>42888</v>
@@ -2421,7 +2430,7 @@
       </c>
       <c r="J44" s="7">
         <f t="shared" si="0"/>
-        <v>0.42408536585365852</v>
+        <v>0.57591463414634148</v>
       </c>
       <c r="K44" s="6">
         <f t="shared" si="1"/>
@@ -2438,7 +2447,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B45" s="2">
         <v>42888</v>
@@ -2466,7 +2475,7 @@
       </c>
       <c r="J45" s="7">
         <f t="shared" si="0"/>
-        <v>0.60239117106069895</v>
+        <v>0.39760882893930105</v>
       </c>
       <c r="K45" s="6">
         <f t="shared" si="1"/>
@@ -2483,7 +2492,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" s="2">
         <v>42888</v>
@@ -2511,7 +2520,7 @@
       </c>
       <c r="J46" s="7">
         <f t="shared" si="0"/>
-        <v>0.6338414634146341</v>
+        <v>0.3661585365853659</v>
       </c>
       <c r="K46" s="6">
         <f t="shared" si="1"/>
@@ -2528,7 +2537,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" s="2">
         <v>42888</v>
@@ -2556,7 +2565,7 @@
       </c>
       <c r="J47" s="7">
         <f t="shared" si="0"/>
-        <v>0.37295330503335355</v>
+        <v>0.62704669496664645</v>
       </c>
       <c r="K47" s="6">
         <f t="shared" si="1"/>
@@ -2573,7 +2582,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48" s="2">
         <v>42888</v>
@@ -2601,7 +2610,7 @@
       </c>
       <c r="J48" s="7">
         <f t="shared" si="0"/>
-        <v>0.33240911891558844</v>
+        <v>0.66759088108441156</v>
       </c>
       <c r="K48" s="6">
         <f t="shared" si="1"/>
@@ -2618,7 +2627,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B49" s="2">
         <v>42888</v>
@@ -2646,7 +2655,7 @@
       </c>
       <c r="J49" s="7">
         <f t="shared" si="0"/>
-        <v>0.2773561037318153</v>
+        <v>0.7226438962681847</v>
       </c>
       <c r="K49" s="6">
         <f t="shared" si="1"/>
@@ -2663,7 +2672,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" s="2">
         <v>42888</v>
@@ -2691,7 +2700,7 @@
       </c>
       <c r="J50" s="7">
         <f t="shared" si="0"/>
-        <v>0.35723231058234189</v>
+        <v>0.64276768941765816</v>
       </c>
       <c r="K50" s="6">
         <f t="shared" si="1"/>
@@ -2708,7 +2717,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B51" s="2">
         <v>42888</v>
@@ -2736,7 +2745,7 @@
       </c>
       <c r="J51" s="7">
         <f t="shared" si="0"/>
-        <v>0.35808270676691728</v>
+        <v>0.64191729323308278</v>
       </c>
       <c r="K51" s="6">
         <f t="shared" si="1"/>
@@ -2753,7 +2762,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" s="2">
         <v>42888</v>
@@ -2781,7 +2790,7 @@
       </c>
       <c r="J52" s="7">
         <f t="shared" si="0"/>
-        <v>0.47037037037037038</v>
+        <v>0.52962962962962967</v>
       </c>
       <c r="K52" s="6">
         <f t="shared" si="1"/>
@@ -2798,7 +2807,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53" s="2">
         <v>42888</v>
@@ -2826,7 +2835,7 @@
       </c>
       <c r="J53" s="7">
         <f t="shared" si="0"/>
-        <v>0.20926616915422885</v>
+        <v>0.7907338308457712</v>
       </c>
       <c r="K53" s="6">
         <f t="shared" si="1"/>
@@ -2843,7 +2852,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B54" s="2">
         <v>42888</v>
@@ -2871,7 +2880,7 @@
       </c>
       <c r="J54" s="7">
         <f t="shared" si="0"/>
-        <v>0.17899316345556246</v>
+        <v>0.82100683654443751</v>
       </c>
       <c r="K54" s="6">
         <f t="shared" si="1"/>
@@ -2888,7 +2897,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B55" s="2">
         <v>42888</v>
@@ -2916,7 +2925,7 @@
       </c>
       <c r="J55" s="7">
         <f t="shared" si="0"/>
-        <v>0.40161812297734628</v>
+        <v>0.59838187702265366</v>
       </c>
       <c r="K55" s="6">
         <f t="shared" si="1"/>
@@ -2933,7 +2942,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B56" s="2">
         <v>42888</v>
@@ -2961,7 +2970,7 @@
       </c>
       <c r="J56" s="7">
         <f t="shared" si="0"/>
-        <v>0.5055158987670344</v>
+        <v>0.4944841012329656</v>
       </c>
       <c r="K56" s="6">
         <f t="shared" si="1"/>
@@ -2978,7 +2987,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57" s="2">
         <v>42888</v>
@@ -3006,7 +3015,7 @@
       </c>
       <c r="J57" s="7">
         <f t="shared" si="0"/>
-        <v>0.29910141206675223</v>
+        <v>0.70089858793324777</v>
       </c>
       <c r="K57" s="6">
         <f t="shared" si="1"/>
@@ -3023,7 +3032,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B58" s="2">
         <v>42888</v>
@@ -3051,7 +3060,7 @@
       </c>
       <c r="J58" s="7">
         <f t="shared" si="0"/>
-        <v>0.44990366088631983</v>
+        <v>0.55009633911368017</v>
       </c>
       <c r="K58" s="6">
         <f t="shared" si="1"/>
@@ -3068,7 +3077,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59" s="2">
         <v>42888</v>
@@ -3096,7 +3105,7 @@
       </c>
       <c r="J59" s="7">
         <f t="shared" si="0"/>
-        <v>0.32345601996257017</v>
+        <v>0.67654398003742977</v>
       </c>
       <c r="K59" s="6">
         <f t="shared" si="1"/>
@@ -3113,7 +3122,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B60" s="2">
         <v>42888</v>
@@ -3141,7 +3150,7 @@
       </c>
       <c r="J60" s="7">
         <f t="shared" si="0"/>
-        <v>0.25139318885448919</v>
+        <v>0.74860681114551086</v>
       </c>
       <c r="K60" s="6">
         <f t="shared" si="1"/>
@@ -3158,7 +3167,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61" s="2">
         <v>42888</v>
@@ -3186,7 +3195,7 @@
       </c>
       <c r="J61" s="7">
         <f t="shared" si="0"/>
-        <v>0.18199233716475097</v>
+        <v>0.81800766283524906</v>
       </c>
       <c r="K61" s="6">
         <f t="shared" si="1"/>
@@ -3203,7 +3212,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B62" s="2">
         <v>42888</v>
@@ -3231,7 +3240,7 @@
       </c>
       <c r="J62" s="7">
         <f t="shared" si="0"/>
-        <v>0.5392921415716857</v>
+        <v>0.4607078584283143</v>
       </c>
       <c r="K62" s="6">
         <f t="shared" si="1"/>
@@ -3248,7 +3257,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B63" s="2">
         <v>42888</v>
@@ -3276,7 +3285,7 @@
       </c>
       <c r="J63" s="7">
         <f t="shared" si="0"/>
-        <v>0.64843269821757832</v>
+        <v>0.35156730178242168</v>
       </c>
       <c r="K63" s="6">
         <f t="shared" si="1"/>
@@ -3293,7 +3302,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B64" s="2">
         <v>42888</v>
@@ -3321,7 +3330,7 @@
       </c>
       <c r="J64" s="7">
         <f t="shared" si="0"/>
-        <v>0.49394306480920652</v>
+        <v>0.50605693519079353</v>
       </c>
       <c r="K64" s="6">
         <f t="shared" si="1"/>
@@ -3338,7 +3347,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B65" s="2">
         <v>42888</v>
@@ -3366,7 +3375,7 @@
       </c>
       <c r="J65" s="7">
         <f t="shared" si="0"/>
-        <v>0.4164142943670503</v>
+        <v>0.58358570563294965</v>
       </c>
       <c r="K65" s="6">
         <f t="shared" si="1"/>
@@ -3383,7 +3392,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B66" s="2">
         <v>42888</v>
@@ -3411,7 +3420,7 @@
       </c>
       <c r="J66" s="7">
         <f t="shared" si="0"/>
-        <v>0.56257557436517536</v>
+        <v>0.43742442563482464</v>
       </c>
       <c r="K66" s="6">
         <f t="shared" si="1"/>
@@ -3428,7 +3437,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B67" s="2">
         <v>42888</v>
@@ -3455,8 +3464,8 @@
         <v>251</v>
       </c>
       <c r="J67" s="7">
-        <f t="shared" ref="J67:J130" si="4">(AVERAGE(H67:I67) / G67)</f>
-        <v>0.16454159077109898</v>
+        <f t="shared" ref="J67:J130" si="4" xml:space="preserve"> 1 - (AVERAGE(H67:I67) / G67)</f>
+        <v>0.83545840922890102</v>
       </c>
       <c r="K67" s="6">
         <f t="shared" ref="K67:K130" si="5">IF(H67=I67, 1,0)</f>
@@ -3473,7 +3482,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B68" s="2">
         <v>42888</v>
@@ -3501,7 +3510,7 @@
       </c>
       <c r="J68" s="7">
         <f t="shared" si="4"/>
-        <v>0.1639244363193175</v>
+        <v>0.83607556368068248</v>
       </c>
       <c r="K68" s="6">
         <f t="shared" si="5"/>
@@ -3518,7 +3527,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B69" s="2">
         <v>42888</v>
@@ -3546,7 +3555,7 @@
       </c>
       <c r="J69" s="7">
         <f t="shared" si="4"/>
-        <v>9.9939975990396154E-2</v>
+        <v>0.90006002400960383</v>
       </c>
       <c r="K69" s="6">
         <f t="shared" si="5"/>
@@ -3563,7 +3572,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B70" s="2">
         <v>42888</v>
@@ -3591,7 +3600,7 @@
       </c>
       <c r="J70" s="7">
         <f t="shared" si="4"/>
-        <v>0.17125748502994012</v>
+        <v>0.82874251497005991</v>
       </c>
       <c r="K70" s="6">
         <f t="shared" si="5"/>
@@ -3608,7 +3617,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B71" s="2">
         <v>42888</v>
@@ -3636,7 +3645,7 @@
       </c>
       <c r="J71" s="7">
         <f t="shared" si="4"/>
-        <v>0.38468414779499405</v>
+        <v>0.61531585220500595</v>
       </c>
       <c r="K71" s="6">
         <f t="shared" si="5"/>
@@ -3653,7 +3662,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B72" s="2">
         <v>42888</v>
@@ -3681,7 +3690,7 @@
       </c>
       <c r="J72" s="7">
         <f t="shared" si="4"/>
-        <v>0.52588801926550266</v>
+        <v>0.47411198073449734</v>
       </c>
       <c r="K72" s="6">
         <f t="shared" si="5"/>
@@ -3698,7 +3707,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B73" s="2">
         <v>42888</v>
@@ -3726,7 +3735,7 @@
       </c>
       <c r="J73" s="7">
         <f t="shared" si="4"/>
-        <v>0.52271313005600495</v>
+        <v>0.47728686994399505</v>
       </c>
       <c r="K73" s="6">
         <f t="shared" si="5"/>
@@ -3743,7 +3752,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B74" s="2">
         <v>42888</v>
@@ -3771,7 +3780,7 @@
       </c>
       <c r="J74" s="7">
         <f t="shared" si="4"/>
-        <v>0.67148125384142598</v>
+        <v>0.32851874615857402</v>
       </c>
       <c r="K74" s="6">
         <f t="shared" si="5"/>
@@ -3788,7 +3797,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B75" s="2">
         <v>42888</v>
@@ -3816,7 +3825,7 @@
       </c>
       <c r="J75" s="7">
         <f t="shared" si="4"/>
-        <v>0.32235221674876846</v>
+        <v>0.67764778325123154</v>
       </c>
       <c r="K75" s="6">
         <f t="shared" si="5"/>
@@ -3833,7 +3842,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76" s="2">
         <v>42888</v>
@@ -3861,7 +3870,7 @@
       </c>
       <c r="J76" s="7">
         <f t="shared" si="4"/>
-        <v>0.25313653136531367</v>
+        <v>0.74686346863468633</v>
       </c>
       <c r="K76" s="6">
         <f t="shared" si="5"/>
@@ -3878,7 +3887,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B77" s="2">
         <v>42888</v>
@@ -3906,7 +3915,7 @@
       </c>
       <c r="J77" s="7">
         <f t="shared" si="4"/>
-        <v>0.55729166666666663</v>
+        <v>0.44270833333333337</v>
       </c>
       <c r="K77" s="6">
         <f t="shared" si="5"/>
@@ -3923,7 +3932,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B78" s="2">
         <v>42888</v>
@@ -3951,7 +3960,7 @@
       </c>
       <c r="J78" s="7">
         <f t="shared" si="4"/>
-        <v>0.48959881129271915</v>
+        <v>0.5104011887072808</v>
       </c>
       <c r="K78" s="6">
         <f t="shared" si="5"/>
@@ -3968,7 +3977,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B79" s="2">
         <v>42888</v>
@@ -3996,7 +4005,7 @@
       </c>
       <c r="J79" s="7">
         <f t="shared" si="4"/>
-        <v>0.47613435474366528</v>
+        <v>0.52386564525633472</v>
       </c>
       <c r="K79" s="6">
         <f t="shared" si="5"/>
@@ -4013,7 +4022,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B80" s="2">
         <v>42888</v>
@@ -4041,7 +4050,7 @@
       </c>
       <c r="J80" s="7">
         <f t="shared" si="4"/>
-        <v>0.40691823899371071</v>
+        <v>0.59308176100628929</v>
       </c>
       <c r="K80" s="6">
         <f t="shared" si="5"/>
@@ -4058,7 +4067,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B81" s="2">
         <v>42888</v>
@@ -4086,7 +4095,7 @@
       </c>
       <c r="J81" s="7">
         <f t="shared" si="4"/>
-        <v>0.33783783783783783</v>
+        <v>0.66216216216216217</v>
       </c>
       <c r="K81" s="6">
         <f t="shared" si="5"/>
@@ -4103,7 +4112,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B82" s="2">
         <v>42883</v>
@@ -4131,7 +4140,7 @@
       </c>
       <c r="J82" s="7">
         <f t="shared" si="4"/>
-        <v>0.13555427914991383</v>
+        <v>0.8644457208500862</v>
       </c>
       <c r="K82" s="6">
         <f t="shared" si="5"/>
@@ -4148,7 +4157,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B83" s="2">
         <v>42883</v>
@@ -4176,7 +4185,7 @@
       </c>
       <c r="J83" s="7">
         <f t="shared" si="4"/>
-        <v>0.13460427498555749</v>
+        <v>0.86539572501444251</v>
       </c>
       <c r="K83" s="6">
         <f t="shared" si="5"/>
@@ -4193,7 +4202,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B84" s="2">
         <v>42883</v>
@@ -4221,7 +4230,7 @@
       </c>
       <c r="J84" s="7">
         <f t="shared" si="4"/>
-        <v>0.26603665521191294</v>
+        <v>0.73396334478808711</v>
       </c>
       <c r="K84" s="6">
         <f t="shared" si="5"/>
@@ -4238,7 +4247,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B85" s="2">
         <v>42883</v>
@@ -4266,7 +4275,7 @@
       </c>
       <c r="J85" s="7">
         <f t="shared" si="4"/>
-        <v>0.32898550724637682</v>
+        <v>0.67101449275362324</v>
       </c>
       <c r="K85" s="6">
         <f t="shared" si="5"/>
@@ -4283,7 +4292,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B86" s="2">
         <v>42883</v>
@@ -4311,7 +4320,7 @@
       </c>
       <c r="J86" s="7">
         <f t="shared" si="4"/>
-        <v>0.28878558977338759</v>
+        <v>0.71121441022661247</v>
       </c>
       <c r="K86" s="6">
         <f t="shared" si="5"/>
@@ -4328,7 +4337,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B87" s="2">
         <v>42883</v>
@@ -4356,7 +4365,7 @@
       </c>
       <c r="J87" s="7">
         <f t="shared" si="4"/>
-        <v>0.33266012694748992</v>
+        <v>0.66733987305251008</v>
       </c>
       <c r="K87" s="6">
         <f t="shared" si="5"/>
@@ -4373,7 +4382,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B88" s="2">
         <v>42883</v>
@@ -4401,7 +4410,7 @@
       </c>
       <c r="J88" s="7">
         <f t="shared" si="4"/>
-        <v>0.55358182877111239</v>
+        <v>0.44641817122888761</v>
       </c>
       <c r="K88" s="6">
         <f t="shared" si="5"/>
@@ -4418,7 +4427,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B89" s="2">
         <v>42883</v>
@@ -4446,7 +4455,7 @@
       </c>
       <c r="J89" s="7">
         <f t="shared" si="4"/>
-        <v>0.22777777777777777</v>
+        <v>0.77222222222222225</v>
       </c>
       <c r="K89" s="6">
         <f t="shared" si="5"/>
@@ -4463,7 +4472,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B90" s="2">
         <v>42883</v>
@@ -4491,7 +4500,7 @@
       </c>
       <c r="J90" s="7">
         <f t="shared" si="4"/>
-        <v>0.46153846153846156</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="K90" s="6">
         <f t="shared" si="5"/>
@@ -4508,7 +4517,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B91" s="2">
         <v>42883</v>
@@ -4536,7 +4545,7 @@
       </c>
       <c r="J91" s="7">
         <f t="shared" si="4"/>
-        <v>0.19811320754716982</v>
+        <v>0.80188679245283012</v>
       </c>
       <c r="K91" s="6">
         <f t="shared" si="5"/>
@@ -4553,7 +4562,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B92" s="2">
         <v>42883</v>
@@ -4581,7 +4590,7 @@
       </c>
       <c r="J92" s="7">
         <f t="shared" si="4"/>
-        <v>9.5882352941176474E-2</v>
+        <v>0.90411764705882347</v>
       </c>
       <c r="K92" s="6">
         <f t="shared" si="5"/>
@@ -4598,7 +4607,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B93" s="2">
         <v>42883</v>
@@ -4626,7 +4635,7 @@
       </c>
       <c r="J93" s="7">
         <f t="shared" si="4"/>
-        <v>0.17254556143445032</v>
+        <v>0.82745443856554968</v>
       </c>
       <c r="K93" s="6">
         <f t="shared" si="5"/>
@@ -4643,7 +4652,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B94" s="2">
         <v>42883</v>
@@ -4671,7 +4680,7 @@
       </c>
       <c r="J94" s="7">
         <f t="shared" si="4"/>
-        <v>0.40984089569829107</v>
+        <v>0.59015910430170893</v>
       </c>
       <c r="K94" s="6">
         <f t="shared" si="5"/>
@@ -4688,7 +4697,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B95" s="2">
         <v>42883</v>
@@ -4716,7 +4725,7 @@
       </c>
       <c r="J95" s="7">
         <f t="shared" si="4"/>
-        <v>0.14311270125223613</v>
+        <v>0.85688729874776381</v>
       </c>
       <c r="K95" s="6">
         <f t="shared" si="5"/>
@@ -4733,7 +4742,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B96" s="2">
         <v>42883</v>
@@ -4761,7 +4770,7 @@
       </c>
       <c r="J96" s="7">
         <f t="shared" si="4"/>
-        <v>0.19166666666666668</v>
+        <v>0.80833333333333335</v>
       </c>
       <c r="K96" s="6">
         <f t="shared" si="5"/>
@@ -4778,7 +4787,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B97" s="2">
         <v>42883</v>
@@ -4806,7 +4815,7 @@
       </c>
       <c r="J97" s="7">
         <f t="shared" si="4"/>
-        <v>0.45791642142436728</v>
+        <v>0.54208357857563272</v>
       </c>
       <c r="K97" s="6">
         <f t="shared" si="5"/>
@@ -4823,7 +4832,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B98" s="2">
         <v>42883</v>
@@ -4851,7 +4860,7 @@
       </c>
       <c r="J98" s="7">
         <f t="shared" si="4"/>
-        <v>0.48808814770696846</v>
+        <v>0.51191185229303149</v>
       </c>
       <c r="K98" s="6">
         <f t="shared" si="5"/>
@@ -4868,7 +4877,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B99" s="2">
         <v>42883</v>
@@ -4896,7 +4905,7 @@
       </c>
       <c r="J99" s="7">
         <f t="shared" si="4"/>
-        <v>0.39438744719372359</v>
+        <v>0.60561255280627635</v>
       </c>
       <c r="K99" s="6">
         <f t="shared" si="5"/>
@@ -4913,7 +4922,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B100" s="2">
         <v>42883</v>
@@ -4941,7 +4950,7 @@
       </c>
       <c r="J100" s="7">
         <f t="shared" si="4"/>
-        <v>0.22005988023952097</v>
+        <v>0.77994011976047906</v>
       </c>
       <c r="K100" s="6">
         <f t="shared" si="5"/>
@@ -4958,7 +4967,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B101" s="2">
         <v>42883</v>
@@ -4986,7 +4995,7 @@
       </c>
       <c r="J101" s="7">
         <f t="shared" si="4"/>
-        <v>0.24157641395908544</v>
+        <v>0.75842358604091453</v>
       </c>
       <c r="K101" s="6">
         <f t="shared" si="5"/>
@@ -5003,7 +5012,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B102" s="2">
         <v>42883</v>
@@ -5031,7 +5040,7 @@
       </c>
       <c r="J102" s="7">
         <f t="shared" si="4"/>
-        <v>4.5454545454545456E-2</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="K102" s="6">
         <f t="shared" si="5"/>
@@ -5048,7 +5057,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B103" s="2">
         <v>42883</v>
@@ -5076,7 +5085,7 @@
       </c>
       <c r="J103" s="7">
         <f t="shared" si="4"/>
-        <v>8.5642317380352648E-2</v>
+        <v>0.91435768261964734</v>
       </c>
       <c r="K103" s="6">
         <f t="shared" si="5"/>
@@ -5093,7 +5102,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B104" s="2">
         <v>42883</v>
@@ -5121,7 +5130,7 @@
       </c>
       <c r="J104" s="7">
         <f t="shared" si="4"/>
-        <v>9.2163009404388721E-2</v>
+        <v>0.90783699059561129</v>
       </c>
       <c r="K104" s="6">
         <f t="shared" si="5"/>
@@ -5138,7 +5147,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B105" s="2">
         <v>42883</v>
@@ -5166,7 +5175,7 @@
       </c>
       <c r="J105" s="7">
         <f t="shared" si="4"/>
-        <v>0.42618296529968452</v>
+        <v>0.57381703470031553</v>
       </c>
       <c r="K105" s="6">
         <f t="shared" si="5"/>
@@ -5183,7 +5192,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B106" s="2">
         <v>42883</v>
@@ -5211,7 +5220,7 @@
       </c>
       <c r="J106" s="7">
         <f t="shared" si="4"/>
-        <v>0.12507896399241947</v>
+        <v>0.87492103600758053</v>
       </c>
       <c r="K106" s="6">
         <f t="shared" si="5"/>
@@ -5228,7 +5237,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B107" s="2">
         <v>42883</v>
@@ -5256,7 +5265,7 @@
       </c>
       <c r="J107" s="7">
         <f t="shared" si="4"/>
-        <v>4.3984476067270378E-2</v>
+        <v>0.95601552393272959</v>
       </c>
       <c r="K107" s="6">
         <f t="shared" si="5"/>
@@ -5273,7 +5282,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B108" s="2">
         <v>42883</v>
@@ -5301,7 +5310,7 @@
       </c>
       <c r="J108" s="7">
         <f t="shared" si="4"/>
-        <v>2.3051948051948053E-2</v>
+        <v>0.9769480519480519</v>
       </c>
       <c r="K108" s="6">
         <f t="shared" si="5"/>
@@ -5318,7 +5327,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B109" s="2">
         <v>42883</v>
@@ -5346,7 +5355,7 @@
       </c>
       <c r="J109" s="7">
         <f t="shared" si="4"/>
-        <v>0.20287433155080214</v>
+        <v>0.79712566844919786</v>
       </c>
       <c r="K109" s="6">
         <f t="shared" si="5"/>
@@ -5363,7 +5372,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B110" s="2">
         <v>42883</v>
@@ -5391,7 +5400,7 @@
       </c>
       <c r="J110" s="7">
         <f t="shared" si="4"/>
-        <v>0.10831656606304493</v>
+        <v>0.89168343393695504</v>
       </c>
       <c r="K110" s="6">
         <f t="shared" si="5"/>
@@ -5408,7 +5417,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B111" s="2">
         <v>42883</v>
@@ -5436,7 +5445,7 @@
       </c>
       <c r="J111" s="7">
         <f t="shared" si="4"/>
-        <v>0.11011904761904762</v>
+        <v>0.88988095238095233</v>
       </c>
       <c r="K111" s="6">
         <f t="shared" si="5"/>
@@ -5453,7 +5462,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B112" s="2">
         <v>42883</v>
@@ -5481,7 +5490,7 @@
       </c>
       <c r="J112" s="7">
         <f t="shared" si="4"/>
-        <v>0.12122207621550592</v>
+        <v>0.87877792378449404</v>
       </c>
       <c r="K112" s="6">
         <f t="shared" si="5"/>
@@ -5498,7 +5507,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B113" s="2">
         <v>42883</v>
@@ -5526,7 +5535,7 @@
       </c>
       <c r="J113" s="7">
         <f t="shared" si="4"/>
-        <v>0.19778067885117492</v>
+        <v>0.8022193211488251</v>
       </c>
       <c r="K113" s="6">
         <f t="shared" si="5"/>
@@ -5543,7 +5552,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B114" s="2">
         <v>42883</v>
@@ -5571,7 +5580,7 @@
       </c>
       <c r="J114" s="7">
         <f t="shared" si="4"/>
-        <v>5.191434133679429E-2</v>
+        <v>0.94808565866320571</v>
       </c>
       <c r="K114" s="6">
         <f t="shared" si="5"/>
@@ -5588,7 +5597,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B115" s="2">
         <v>42883</v>
@@ -5616,7 +5625,7 @@
       </c>
       <c r="J115" s="7">
         <f t="shared" si="4"/>
-        <v>0.10078023407022106</v>
+        <v>0.89921976592977892</v>
       </c>
       <c r="K115" s="6">
         <f t="shared" si="5"/>
@@ -5633,7 +5642,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B116" s="2">
         <v>42883</v>
@@ -5661,7 +5670,7 @@
       </c>
       <c r="J116" s="7">
         <f t="shared" si="4"/>
-        <v>6.7116249197174058E-2</v>
+        <v>0.93288375080282593</v>
       </c>
       <c r="K116" s="6">
         <f t="shared" si="5"/>
@@ -5678,7 +5687,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B117" s="2">
         <v>42883</v>
@@ -5706,7 +5715,7 @@
       </c>
       <c r="J117" s="7">
         <f t="shared" si="4"/>
-        <v>7.4372182871860912E-2</v>
+        <v>0.92562781712813913</v>
       </c>
       <c r="K117" s="6">
         <f t="shared" si="5"/>
@@ -5723,7 +5732,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B118" s="2">
         <v>42883</v>
@@ -5751,7 +5760,7 @@
       </c>
       <c r="J118" s="7">
         <f t="shared" si="4"/>
-        <v>0.12168284789644013</v>
+        <v>0.87831715210355987</v>
       </c>
       <c r="K118" s="6">
         <f t="shared" si="5"/>
@@ -5768,7 +5777,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B119" s="2">
         <v>42883</v>
@@ -5796,7 +5805,7 @@
       </c>
       <c r="J119" s="7">
         <f t="shared" si="4"/>
-        <v>9.2292746113989632E-2</v>
+        <v>0.90770725388601037</v>
       </c>
       <c r="K119" s="6">
         <f t="shared" si="5"/>
@@ -5813,7 +5822,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B120" s="2">
         <v>42883</v>
@@ -5841,7 +5850,7 @@
       </c>
       <c r="J120" s="7">
         <f t="shared" si="4"/>
-        <v>9.1089108910891087E-2</v>
+        <v>0.90891089108910894</v>
       </c>
       <c r="K120" s="6">
         <f t="shared" si="5"/>
@@ -5858,7 +5867,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B121" s="2">
         <v>42883</v>
@@ -5886,7 +5895,7 @@
       </c>
       <c r="J121" s="7">
         <f t="shared" si="4"/>
-        <v>0.19115734720416125</v>
+        <v>0.80884265279583878</v>
       </c>
       <c r="K121" s="6">
         <f t="shared" si="5"/>
@@ -5903,7 +5912,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B122" s="2">
         <v>42883</v>
@@ -5931,7 +5940,7 @@
       </c>
       <c r="J122" s="7">
         <f t="shared" si="4"/>
-        <v>0.47617354196301565</v>
+        <v>0.52382645803698435</v>
       </c>
       <c r="K122" s="6">
         <f t="shared" si="5"/>
@@ -5948,7 +5957,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B123" s="2">
         <v>42883</v>
@@ -5976,7 +5985,7 @@
       </c>
       <c r="J123" s="7">
         <f t="shared" si="4"/>
-        <v>0.52693370165745856</v>
+        <v>0.47306629834254144</v>
       </c>
       <c r="K123" s="6">
         <f t="shared" si="5"/>
@@ -5993,7 +6002,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B124" s="2">
         <v>42883</v>
@@ -6021,7 +6030,7 @@
       </c>
       <c r="J124" s="7">
         <f t="shared" si="4"/>
-        <v>0.4046624913013222</v>
+        <v>0.59533750869867785</v>
       </c>
       <c r="K124" s="6">
         <f t="shared" si="5"/>
@@ -6038,7 +6047,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B125" s="2">
         <v>42883</v>
@@ -6066,7 +6075,7 @@
       </c>
       <c r="J125" s="7">
         <f t="shared" si="4"/>
-        <v>0.2842935528120713</v>
+        <v>0.71570644718792864</v>
       </c>
       <c r="K125" s="6">
         <f t="shared" si="5"/>
@@ -6083,7 +6092,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B126" s="2">
         <v>42883</v>
@@ -6111,7 +6120,7 @@
       </c>
       <c r="J126" s="7">
         <f t="shared" si="4"/>
-        <v>0.40212912087912089</v>
+        <v>0.59787087912087911</v>
       </c>
       <c r="K126" s="6">
         <f t="shared" si="5"/>
@@ -6128,7 +6137,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B127" s="2">
         <v>42883</v>
@@ -6156,7 +6165,7 @@
       </c>
       <c r="J127" s="7">
         <f t="shared" si="4"/>
-        <v>0.40520191649555098</v>
+        <v>0.59479808350444907</v>
       </c>
       <c r="K127" s="6">
         <f t="shared" si="5"/>
@@ -6173,7 +6182,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B128" s="2">
         <v>42883</v>
@@ -6201,7 +6210,7 @@
       </c>
       <c r="J128" s="7">
         <f t="shared" si="4"/>
-        <v>0.51201923076923073</v>
+        <v>0.48798076923076927</v>
       </c>
       <c r="K128" s="6">
         <f t="shared" si="5"/>
@@ -6218,7 +6227,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B129" s="2">
         <v>42883</v>
@@ -6246,7 +6255,7 @@
       </c>
       <c r="J129" s="7">
         <f t="shared" si="4"/>
-        <v>0.50743243243243241</v>
+        <v>0.49256756756756759</v>
       </c>
       <c r="K129" s="6">
         <f t="shared" si="5"/>
@@ -6263,7 +6272,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B130" s="2">
         <v>42883</v>
@@ -6291,7 +6300,7 @@
       </c>
       <c r="J130" s="7">
         <f t="shared" si="4"/>
-        <v>0.1720356408498972</v>
+        <v>0.8279643591501028</v>
       </c>
       <c r="K130" s="6">
         <f t="shared" si="5"/>
@@ -6308,7 +6317,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B131" s="2">
         <v>42883</v>
@@ -6335,8 +6344,8 @@
         <v>600</v>
       </c>
       <c r="J131" s="7">
-        <f t="shared" ref="J131:J194" si="8">(AVERAGE(H131:I131) / G131)</f>
-        <v>0.33085752869682644</v>
+        <f t="shared" ref="J131:J194" si="8" xml:space="preserve"> 1 - (AVERAGE(H131:I131) / G131)</f>
+        <v>0.6691424713031735</v>
       </c>
       <c r="K131" s="6">
         <f t="shared" ref="K131:K194" si="9">IF(H131=I131, 1,0)</f>
@@ -6353,7 +6362,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B132" s="2">
         <v>42883</v>
@@ -6381,7 +6390,7 @@
       </c>
       <c r="J132" s="7">
         <f t="shared" si="8"/>
-        <v>0.15838068181818182</v>
+        <v>0.84161931818181812</v>
       </c>
       <c r="K132" s="6">
         <f t="shared" si="9"/>
@@ -6398,7 +6407,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B133" s="2">
         <v>42883</v>
@@ -6426,7 +6435,7 @@
       </c>
       <c r="J133" s="7">
         <f t="shared" si="8"/>
-        <v>0.30594900849858359</v>
+        <v>0.69405099150141636</v>
       </c>
       <c r="K133" s="6">
         <f t="shared" si="9"/>
@@ -6443,7 +6452,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B134" s="2">
         <v>42883</v>
@@ -6471,7 +6480,7 @@
       </c>
       <c r="J134" s="7">
         <f t="shared" si="8"/>
-        <v>0.34514528703047487</v>
+        <v>0.65485471296952513</v>
       </c>
       <c r="K134" s="6">
         <f t="shared" si="9"/>
@@ -6488,7 +6497,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B135" s="2">
         <v>42883</v>
@@ -6516,7 +6525,7 @@
       </c>
       <c r="J135" s="7">
         <f t="shared" si="8"/>
-        <v>0.20437196391394866</v>
+        <v>0.79562803608605137</v>
       </c>
       <c r="K135" s="6">
         <f t="shared" si="9"/>
@@ -6533,7 +6542,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B136" s="2">
         <v>42883</v>
@@ -6561,7 +6570,7 @@
       </c>
       <c r="J136" s="7">
         <f t="shared" si="8"/>
-        <v>9.8743893928820659E-2</v>
+        <v>0.90125610607117934</v>
       </c>
       <c r="K136" s="6">
         <f t="shared" si="9"/>
@@ -6578,7 +6587,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B137" s="2">
         <v>42883</v>
@@ -6606,7 +6615,7 @@
       </c>
       <c r="J137" s="7">
         <f t="shared" si="8"/>
-        <v>0.16412213740458015</v>
+        <v>0.83587786259541985</v>
       </c>
       <c r="K137" s="6">
         <f t="shared" si="9"/>
@@ -6623,7 +6632,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B138" s="2">
         <v>42883</v>
@@ -6651,7 +6660,7 @@
       </c>
       <c r="J138" s="7">
         <f t="shared" si="8"/>
-        <v>7.5431034482758619E-2</v>
+        <v>0.92456896551724133</v>
       </c>
       <c r="K138" s="6">
         <f t="shared" si="9"/>
@@ -6668,7 +6677,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B139" s="2">
         <v>42883</v>
@@ -6696,7 +6705,7 @@
       </c>
       <c r="J139" s="7">
         <f t="shared" si="8"/>
-        <v>0.11966126656848307</v>
+        <v>0.88033873343151692</v>
       </c>
       <c r="K139" s="6">
         <f t="shared" si="9"/>
@@ -6713,7 +6722,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B140" s="2">
         <v>42883</v>
@@ -6741,7 +6750,7 @@
       </c>
       <c r="J140" s="7">
         <f t="shared" si="8"/>
-        <v>0.13923076923076924</v>
+        <v>0.86076923076923073</v>
       </c>
       <c r="K140" s="6">
         <f t="shared" si="9"/>
@@ -6758,7 +6767,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B141" s="2">
         <v>42883</v>
@@ -6786,7 +6795,7 @@
       </c>
       <c r="J141" s="7">
         <f t="shared" si="8"/>
-        <v>0.12136684996072271</v>
+        <v>0.87863315003927733</v>
       </c>
       <c r="K141" s="6">
         <f t="shared" si="9"/>
@@ -6803,7 +6812,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B142" s="2">
         <v>42883</v>
@@ -6831,7 +6840,7 @@
       </c>
       <c r="J142" s="7">
         <f t="shared" si="8"/>
-        <v>0.41969407265774378</v>
+        <v>0.58030592734225617</v>
       </c>
       <c r="K142" s="6">
         <f t="shared" si="9"/>
@@ -6848,7 +6857,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B143" s="2">
         <v>42883</v>
@@ -6876,7 +6885,7 @@
       </c>
       <c r="J143" s="7">
         <f t="shared" si="8"/>
-        <v>0.36886304909560724</v>
+        <v>0.6311369509043927</v>
       </c>
       <c r="K143" s="6">
         <f t="shared" si="9"/>
@@ -6893,7 +6902,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B144" s="2">
         <v>42883</v>
@@ -6921,7 +6930,7 @@
       </c>
       <c r="J144" s="7">
         <f t="shared" si="8"/>
-        <v>0.47358247422680411</v>
+        <v>0.52641752577319589</v>
       </c>
       <c r="K144" s="6">
         <f t="shared" si="9"/>
@@ -6938,7 +6947,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B145" s="2">
         <v>42883</v>
@@ -6966,7 +6975,7 @@
       </c>
       <c r="J145" s="7">
         <f t="shared" si="8"/>
-        <v>0.32614294913071473</v>
+        <v>0.67385705086928527</v>
       </c>
       <c r="K145" s="6">
         <f t="shared" si="9"/>
@@ -6983,7 +6992,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B146" s="2">
         <v>42883</v>
@@ -7011,7 +7020,7 @@
       </c>
       <c r="J146" s="7">
         <f t="shared" si="8"/>
-        <v>0.36077558804831533</v>
+        <v>0.63922441195168467</v>
       </c>
       <c r="K146" s="6">
         <f t="shared" si="9"/>
@@ -7028,7 +7037,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B147" s="2">
         <v>42883</v>
@@ -7056,7 +7065,7 @@
       </c>
       <c r="J147" s="7">
         <f t="shared" si="8"/>
-        <v>0.16562107904642409</v>
+        <v>0.83437892095357591</v>
       </c>
       <c r="K147" s="6">
         <f t="shared" si="9"/>
@@ -7073,7 +7082,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B148" s="2">
         <v>42883</v>
@@ -7101,7 +7110,7 @@
       </c>
       <c r="J148" s="7">
         <f t="shared" si="8"/>
-        <v>0.11408540471637986</v>
+        <v>0.88591459528362015</v>
       </c>
       <c r="K148" s="6">
         <f t="shared" si="9"/>
@@ -7118,7 +7127,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B149" s="2">
         <v>42883</v>
@@ -7146,7 +7155,7 @@
       </c>
       <c r="J149" s="7">
         <f t="shared" si="8"/>
-        <v>0.13400673400673402</v>
+        <v>0.86599326599326598</v>
       </c>
       <c r="K149" s="6">
         <f t="shared" si="9"/>
@@ -7163,7 +7172,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B150" s="2">
         <v>42883</v>
@@ -7191,7 +7200,7 @@
       </c>
       <c r="J150" s="7">
         <f t="shared" si="8"/>
-        <v>0.40262652146060218</v>
+        <v>0.59737347853939782</v>
       </c>
       <c r="K150" s="6">
         <f t="shared" si="9"/>
@@ -7208,7 +7217,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B151" s="2">
         <v>42883</v>
@@ -7236,7 +7245,7 @@
       </c>
       <c r="J151" s="7">
         <f t="shared" si="8"/>
-        <v>0.39090330788804073</v>
+        <v>0.60909669211195927</v>
       </c>
       <c r="K151" s="6">
         <f t="shared" si="9"/>
@@ -7253,7 +7262,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B152" s="2">
         <v>42883</v>
@@ -7281,7 +7290,7 @@
       </c>
       <c r="J152" s="7">
         <f t="shared" si="8"/>
-        <v>0.17940619077700568</v>
+        <v>0.8205938092229943</v>
       </c>
       <c r="K152" s="6">
         <f t="shared" si="9"/>
@@ -7298,7 +7307,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B153" s="2">
         <v>42883</v>
@@ -7326,7 +7335,7 @@
       </c>
       <c r="J153" s="7">
         <f t="shared" si="8"/>
-        <v>0.11100861008610086</v>
+        <v>0.88899138991389914</v>
       </c>
       <c r="K153" s="6">
         <f t="shared" si="9"/>
@@ -7343,7 +7352,7 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B154" s="2">
         <v>42883</v>
@@ -7371,7 +7380,7 @@
       </c>
       <c r="J154" s="7">
         <f t="shared" si="8"/>
-        <v>0.61891558841651262</v>
+        <v>0.38108441158348738</v>
       </c>
       <c r="K154" s="6">
         <f t="shared" si="9"/>
@@ -7388,7 +7397,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B155" s="2">
         <v>42883</v>
@@ -7416,7 +7425,7 @@
       </c>
       <c r="J155" s="7">
         <f t="shared" si="8"/>
-        <v>0.41733251382913339</v>
+        <v>0.58266748617086661</v>
       </c>
       <c r="K155" s="6">
         <f t="shared" si="9"/>
@@ -7433,7 +7442,7 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B156" s="2">
         <v>42883</v>
@@ -7461,7 +7470,7 @@
       </c>
       <c r="J156" s="7">
         <f t="shared" si="8"/>
-        <v>0.43058103975535167</v>
+        <v>0.56941896024464833</v>
       </c>
       <c r="K156" s="6">
         <f t="shared" si="9"/>
@@ -7478,7 +7487,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B157" s="2">
         <v>42883</v>
@@ -7506,7 +7515,7 @@
       </c>
       <c r="J157" s="7">
         <f t="shared" si="8"/>
-        <v>0.29877300613496932</v>
+        <v>0.70122699386503062</v>
       </c>
       <c r="K157" s="6">
         <f t="shared" si="9"/>
@@ -7523,7 +7532,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B158" s="2">
         <v>42883</v>
@@ -7551,7 +7560,7 @@
       </c>
       <c r="J158" s="7">
         <f t="shared" si="8"/>
-        <v>0.23086419753086421</v>
+        <v>0.76913580246913582</v>
       </c>
       <c r="K158" s="6">
         <f t="shared" si="9"/>
@@ -7568,7 +7577,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B159" s="2">
         <v>42883</v>
@@ -7596,7 +7605,7 @@
       </c>
       <c r="J159" s="7">
         <f t="shared" si="8"/>
-        <v>0.29700187382885695</v>
+        <v>0.7029981261711431</v>
       </c>
       <c r="K159" s="6">
         <f t="shared" si="9"/>
@@ -7613,7 +7622,7 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B160" s="2">
         <v>42883</v>
@@ -7641,7 +7650,7 @@
       </c>
       <c r="J160" s="7">
         <f t="shared" si="8"/>
-        <v>0.22564734895191121</v>
+        <v>0.77435265104808881</v>
       </c>
       <c r="K160" s="6">
         <f t="shared" si="9"/>
@@ -7658,7 +7667,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B161" s="2">
         <v>42883</v>
@@ -7686,7 +7695,7 @@
       </c>
       <c r="J161" s="7">
         <f t="shared" si="8"/>
-        <v>0.19688644688644688</v>
+        <v>0.80311355311355315</v>
       </c>
       <c r="K161" s="6">
         <f t="shared" si="9"/>
@@ -7703,13 +7712,13 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C162" s="8">
+        <v>2</v>
       </c>
       <c r="D162" s="3">
         <v>1</v>
@@ -7731,7 +7740,7 @@
       </c>
       <c r="J162" s="7">
         <f t="shared" si="8"/>
-        <v>0.50759416767922239</v>
+        <v>0.49240583232077761</v>
       </c>
       <c r="K162" s="6">
         <f t="shared" si="9"/>
@@ -7748,13 +7757,13 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C163" s="8">
+        <v>2</v>
       </c>
       <c r="D163" s="3">
         <v>1</v>
@@ -7776,7 +7785,7 @@
       </c>
       <c r="J163" s="7">
         <f t="shared" si="8"/>
-        <v>0.37485345838218054</v>
+        <v>0.62514654161781946</v>
       </c>
       <c r="K163" s="6">
         <f t="shared" si="9"/>
@@ -7793,13 +7802,13 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C164" s="8">
+        <v>2</v>
       </c>
       <c r="D164" s="3">
         <v>1</v>
@@ -7821,7 +7830,7 @@
       </c>
       <c r="J164" s="7">
         <f t="shared" si="8"/>
-        <v>0.12160566706021252</v>
+        <v>0.87839433293978753</v>
       </c>
       <c r="K164" s="6">
         <f t="shared" si="9"/>
@@ -7838,13 +7847,13 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C165" s="8">
+        <v>2</v>
       </c>
       <c r="D165" s="3">
         <v>1</v>
@@ -7866,7 +7875,7 @@
       </c>
       <c r="J165" s="7">
         <f t="shared" si="8"/>
-        <v>0.152428320655354</v>
+        <v>0.84757167934464595</v>
       </c>
       <c r="K165" s="6">
         <f t="shared" si="9"/>
@@ -7883,13 +7892,13 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C166" s="8">
+        <v>2</v>
       </c>
       <c r="D166" s="3">
         <v>1</v>
@@ -7911,7 +7920,7 @@
       </c>
       <c r="J166" s="7">
         <f t="shared" si="8"/>
-        <v>0.22108644859813084</v>
+        <v>0.77891355140186913</v>
       </c>
       <c r="K166" s="6">
         <f t="shared" si="9"/>
@@ -7928,13 +7937,13 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C167" s="8">
+        <v>2</v>
       </c>
       <c r="D167" s="3">
         <v>1</v>
@@ -7956,7 +7965,7 @@
       </c>
       <c r="J167" s="7">
         <f t="shared" si="8"/>
-        <v>0.55623543123543129</v>
+        <v>0.44376456876456871</v>
       </c>
       <c r="K167" s="6">
         <f t="shared" si="9"/>
@@ -7973,13 +7982,13 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C168" s="8">
+        <v>2</v>
       </c>
       <c r="D168" s="3">
         <v>1</v>
@@ -8001,7 +8010,7 @@
       </c>
       <c r="J168" s="7">
         <f t="shared" si="8"/>
-        <v>0.23724340175953079</v>
+        <v>0.76275659824046915</v>
       </c>
       <c r="K168" s="6">
         <f t="shared" si="9"/>
@@ -8018,13 +8027,13 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C169" s="8">
+        <v>2</v>
       </c>
       <c r="D169" s="3">
         <v>1</v>
@@ -8046,7 +8055,7 @@
       </c>
       <c r="J169" s="7">
         <f t="shared" si="8"/>
-        <v>0.15848610289769366</v>
+        <v>0.8415138971023064</v>
       </c>
       <c r="K169" s="6">
         <f t="shared" si="9"/>
@@ -8063,13 +8072,13 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C170" s="8">
+        <v>2</v>
       </c>
       <c r="D170" s="3">
         <v>1</v>
@@ -8091,7 +8100,7 @@
       </c>
       <c r="J170" s="7">
         <f t="shared" si="8"/>
-        <v>0.22065727699530516</v>
+        <v>0.77934272300469487</v>
       </c>
       <c r="K170" s="6">
         <f t="shared" si="9"/>
@@ -8108,13 +8117,13 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C171" s="8">
+        <v>2</v>
       </c>
       <c r="D171" s="3">
         <v>1</v>
@@ -8136,7 +8145,7 @@
       </c>
       <c r="J171" s="7">
         <f t="shared" si="8"/>
-        <v>9.9705014749262535E-2</v>
+        <v>0.90029498525073748</v>
       </c>
       <c r="K171" s="6">
         <f t="shared" si="9"/>
@@ -8153,13 +8162,13 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C172" s="8">
+        <v>2</v>
       </c>
       <c r="D172" s="3">
         <v>2</v>
@@ -8181,7 +8190,7 @@
       </c>
       <c r="J172" s="7">
         <f t="shared" si="8"/>
-        <v>0.38116197183098594</v>
+        <v>0.61883802816901401</v>
       </c>
       <c r="K172" s="6">
         <f t="shared" si="9"/>
@@ -8198,13 +8207,13 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C173" s="8">
+        <v>2</v>
       </c>
       <c r="D173" s="3">
         <v>2</v>
@@ -8226,7 +8235,7 @@
       </c>
       <c r="J173" s="7">
         <f t="shared" si="8"/>
-        <v>0.10087976539589442</v>
+        <v>0.89912023460410562</v>
       </c>
       <c r="K173" s="6">
         <f t="shared" si="9"/>
@@ -8243,13 +8252,13 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C174" s="8">
+        <v>2</v>
       </c>
       <c r="D174" s="3">
         <v>2</v>
@@ -8271,7 +8280,7 @@
       </c>
       <c r="J174" s="7">
         <f t="shared" si="8"/>
-        <v>0.17143674871207784</v>
+        <v>0.82856325128792219</v>
       </c>
       <c r="K174" s="6">
         <f t="shared" si="9"/>
@@ -8288,13 +8297,13 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C175" s="8">
+        <v>2</v>
       </c>
       <c r="D175" s="3">
         <v>2</v>
@@ -8316,7 +8325,7 @@
       </c>
       <c r="J175" s="7">
         <f t="shared" si="8"/>
-        <v>0.27492625368731566</v>
+        <v>0.7250737463126844</v>
       </c>
       <c r="K175" s="6">
         <f t="shared" si="9"/>
@@ -8333,13 +8342,13 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C176" s="8">
+        <v>2</v>
       </c>
       <c r="D176" s="3">
         <v>2</v>
@@ -8361,7 +8370,7 @@
       </c>
       <c r="J176" s="7">
         <f t="shared" si="8"/>
-        <v>0.23610298420128731</v>
+        <v>0.76389701579871272</v>
       </c>
       <c r="K176" s="6">
         <f t="shared" si="9"/>
@@ -8378,13 +8387,13 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C177" s="8">
+        <v>2</v>
       </c>
       <c r="D177" s="3">
         <v>2</v>
@@ -8406,7 +8415,7 @@
       </c>
       <c r="J177" s="7">
         <f t="shared" si="8"/>
-        <v>0.29824046920821112</v>
+        <v>0.70175953079178888</v>
       </c>
       <c r="K177" s="6">
         <f t="shared" si="9"/>
@@ -8423,13 +8432,13 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C178" s="8">
+        <v>2</v>
       </c>
       <c r="D178" s="3">
         <v>2</v>
@@ -8451,7 +8460,7 @@
       </c>
       <c r="J178" s="7">
         <f t="shared" si="8"/>
-        <v>0.17114485981308411</v>
+        <v>0.82885514018691586</v>
       </c>
       <c r="K178" s="6">
         <f t="shared" si="9"/>
@@ -8468,13 +8477,13 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C179" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C179" s="8">
+        <v>2</v>
       </c>
       <c r="D179" s="3">
         <v>2</v>
@@ -8496,7 +8505,7 @@
       </c>
       <c r="J179" s="7">
         <f t="shared" si="8"/>
-        <v>0.45247695852534564</v>
+        <v>0.54752304147465436</v>
       </c>
       <c r="K179" s="6">
         <f t="shared" si="9"/>
@@ -8513,13 +8522,13 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C180" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C180" s="8">
+        <v>2</v>
       </c>
       <c r="D180" s="3">
         <v>2</v>
@@ -8541,7 +8550,7 @@
       </c>
       <c r="J180" s="7">
         <f t="shared" si="8"/>
-        <v>0.34631028471818709</v>
+        <v>0.65368971528181286</v>
       </c>
       <c r="K180" s="6">
         <f t="shared" si="9"/>
@@ -8558,13 +8567,13 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C181" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C181" s="8">
+        <v>2</v>
       </c>
       <c r="D181" s="3">
         <v>2</v>
@@ -8586,7 +8595,7 @@
       </c>
       <c r="J181" s="7">
         <f t="shared" si="8"/>
-        <v>0.31260945709281962</v>
+        <v>0.68739054290718038</v>
       </c>
       <c r="K181" s="6">
         <f t="shared" si="9"/>
@@ -8603,13 +8612,13 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C182" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C182" s="8">
+        <v>1</v>
       </c>
       <c r="D182" s="3">
         <v>1</v>
@@ -8631,7 +8640,7 @@
       </c>
       <c r="J182" s="7">
         <f t="shared" si="8"/>
-        <v>0.47651605231866823</v>
+        <v>0.52348394768133177</v>
       </c>
       <c r="K182" s="6">
         <f t="shared" si="9"/>
@@ -8648,13 +8657,13 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C183" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C183" s="8">
+        <v>1</v>
       </c>
       <c r="D183" s="3">
         <v>1</v>
@@ -8676,7 +8685,7 @@
       </c>
       <c r="J183" s="7">
         <f t="shared" si="8"/>
-        <v>0.34250144759698897</v>
+        <v>0.65749855240301103</v>
       </c>
       <c r="K183" s="6">
         <f t="shared" si="9"/>
@@ -8693,13 +8702,13 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C184" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C184" s="8">
+        <v>1</v>
       </c>
       <c r="D184" s="3">
         <v>1</v>
@@ -8721,7 +8730,7 @@
       </c>
       <c r="J184" s="7">
         <f t="shared" si="8"/>
-        <v>0.27457824316463059</v>
+        <v>0.72542175683536936</v>
       </c>
       <c r="K184" s="6">
         <f t="shared" si="9"/>
@@ -8738,13 +8747,13 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C185" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C185" s="8">
+        <v>1</v>
       </c>
       <c r="D185" s="3">
         <v>1</v>
@@ -8766,7 +8775,7 @@
       </c>
       <c r="J185" s="7">
         <f t="shared" si="8"/>
-        <v>0.31738623103850644</v>
+        <v>0.68261376896149351</v>
       </c>
       <c r="K185" s="6">
         <f t="shared" si="9"/>
@@ -8783,13 +8792,13 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C186" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C186" s="8">
+        <v>1</v>
       </c>
       <c r="D186" s="3">
         <v>1</v>
@@ -8811,7 +8820,7 @@
       </c>
       <c r="J186" s="7">
         <f t="shared" si="8"/>
-        <v>0.21081871345029241</v>
+        <v>0.78918128654970765</v>
       </c>
       <c r="K186" s="6">
         <f t="shared" si="9"/>
@@ -8828,13 +8837,13 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C187" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C187" s="8">
+        <v>1</v>
       </c>
       <c r="D187" s="3">
         <v>1</v>
@@ -8856,7 +8865,7 @@
       </c>
       <c r="J187" s="7">
         <f t="shared" si="8"/>
-        <v>0.23668812170860151</v>
+        <v>0.76331187829139846</v>
       </c>
       <c r="K187" s="6">
         <f t="shared" si="9"/>
@@ -8873,13 +8882,13 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C188" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C188" s="8">
+        <v>1</v>
       </c>
       <c r="D188" s="3">
         <v>1</v>
@@ -8901,7 +8910,7 @@
       </c>
       <c r="J188" s="7">
         <f t="shared" si="8"/>
-        <v>0.21265377855887521</v>
+        <v>0.78734622144112476</v>
       </c>
       <c r="K188" s="6">
         <f t="shared" si="9"/>
@@ -8918,13 +8927,13 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C189" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C189" s="8">
+        <v>1</v>
       </c>
       <c r="D189" s="3">
         <v>1</v>
@@ -8946,7 +8955,7 @@
       </c>
       <c r="J189" s="7">
         <f t="shared" si="8"/>
-        <v>0.27930029154518948</v>
+        <v>0.72069970845481057</v>
       </c>
       <c r="K189" s="6">
         <f t="shared" si="9"/>
@@ -8963,13 +8972,13 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C190" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C190" s="8">
+        <v>1</v>
       </c>
       <c r="D190" s="3">
         <v>1</v>
@@ -8991,7 +9000,7 @@
       </c>
       <c r="J190" s="7">
         <f t="shared" si="8"/>
-        <v>0.28797846889952156</v>
+        <v>0.7120215311004785</v>
       </c>
       <c r="K190" s="6">
         <f t="shared" si="9"/>
@@ -9008,13 +9017,13 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C191" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C191" s="8">
+        <v>1</v>
       </c>
       <c r="D191" s="3">
         <v>1</v>
@@ -9036,7 +9045,7 @@
       </c>
       <c r="J191" s="7">
         <f t="shared" si="8"/>
-        <v>0.1454171562867215</v>
+        <v>0.85458284371327853</v>
       </c>
       <c r="K191" s="6">
         <f t="shared" si="9"/>
@@ -9053,13 +9062,13 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C192" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C192" s="8">
+        <v>1</v>
       </c>
       <c r="D192" s="3">
         <v>2</v>
@@ -9081,7 +9090,7 @@
       </c>
       <c r="J192" s="7">
         <f t="shared" si="8"/>
-        <v>7.2235434007134364E-2</v>
+        <v>0.92776456599286561</v>
       </c>
       <c r="K192" s="6">
         <f t="shared" si="9"/>
@@ -9098,13 +9107,13 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C193" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C193" s="8">
+        <v>1</v>
       </c>
       <c r="D193" s="3">
         <v>2</v>
@@ -9126,7 +9135,7 @@
       </c>
       <c r="J193" s="7">
         <f t="shared" si="8"/>
-        <v>0.19472140762463344</v>
+        <v>0.80527859237536659</v>
       </c>
       <c r="K193" s="6">
         <f t="shared" si="9"/>
@@ -9143,13 +9152,13 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C194" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C194" s="8">
+        <v>1</v>
       </c>
       <c r="D194" s="3">
         <v>2</v>
@@ -9171,7 +9180,7 @@
       </c>
       <c r="J194" s="7">
         <f t="shared" si="8"/>
-        <v>0.10504451038575667</v>
+        <v>0.89495548961424332</v>
       </c>
       <c r="K194" s="6">
         <f t="shared" si="9"/>
@@ -9188,13 +9197,13 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C195" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C195" s="8">
+        <v>1</v>
       </c>
       <c r="D195" s="3">
         <v>2</v>
@@ -9215,8 +9224,8 @@
         <v>172</v>
       </c>
       <c r="J195" s="7">
-        <f t="shared" ref="J195:J241" si="12">(AVERAGE(H195:I195) / G195)</f>
-        <v>0.11264705882352941</v>
+        <f t="shared" ref="J195:J241" si="12" xml:space="preserve"> 1 - (AVERAGE(H195:I195) / G195)</f>
+        <v>0.88735294117647057</v>
       </c>
       <c r="K195" s="6">
         <f t="shared" ref="K195:K241" si="13">IF(H195=I195, 1,0)</f>
@@ -9233,13 +9242,13 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C196" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C196" s="8">
+        <v>1</v>
       </c>
       <c r="D196" s="3">
         <v>2</v>
@@ -9261,7 +9270,7 @@
       </c>
       <c r="J196" s="7">
         <f t="shared" si="12"/>
-        <v>8.4365781710914453E-2</v>
+        <v>0.91563421828908553</v>
       </c>
       <c r="K196" s="6">
         <f t="shared" si="13"/>
@@ -9278,13 +9287,13 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C197" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C197" s="8">
+        <v>1</v>
       </c>
       <c r="D197" s="3">
         <v>2</v>
@@ -9306,7 +9315,7 @@
       </c>
       <c r="J197" s="7">
         <f t="shared" si="12"/>
-        <v>0.10258671369782481</v>
+        <v>0.89741328630217521</v>
       </c>
       <c r="K197" s="6">
         <f t="shared" si="13"/>
@@ -9323,13 +9332,13 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C198" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C198" s="8">
+        <v>1</v>
       </c>
       <c r="D198" s="3">
         <v>2</v>
@@ -9351,7 +9360,7 @@
       </c>
       <c r="J198" s="7">
         <f t="shared" si="12"/>
-        <v>4.7423887587822011E-2</v>
+        <v>0.95257611241217799</v>
       </c>
       <c r="K198" s="6">
         <f t="shared" si="13"/>
@@ -9368,13 +9377,13 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C199" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C199" s="8">
+        <v>1</v>
       </c>
       <c r="D199" s="3">
         <v>2</v>
@@ -9396,7 +9405,7 @@
       </c>
       <c r="J199" s="7">
         <f t="shared" si="12"/>
-        <v>0.12743938497930218</v>
+        <v>0.87256061502069782</v>
       </c>
       <c r="K199" s="6">
         <f t="shared" si="13"/>
@@ -9413,13 +9422,13 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C200" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C200" s="8">
+        <v>1</v>
       </c>
       <c r="D200" s="3">
         <v>2</v>
@@ -9441,7 +9450,7 @@
       </c>
       <c r="J200" s="7">
         <f t="shared" si="12"/>
-        <v>8.1319976428992344E-2</v>
+        <v>0.91868002357100764</v>
       </c>
       <c r="K200" s="6">
         <f t="shared" si="13"/>
@@ -9458,13 +9467,13 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C201" s="3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C201" s="8">
+        <v>1</v>
       </c>
       <c r="D201" s="3">
         <v>2</v>
@@ -9486,7 +9495,7 @@
       </c>
       <c r="J201" s="7">
         <f t="shared" si="12"/>
-        <v>0.10940272028385571</v>
+        <v>0.89059727971614433</v>
       </c>
       <c r="K201" s="6">
         <f t="shared" si="13"/>
@@ -9503,10 +9512,10 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C202" s="3">
         <v>3</v>
@@ -9531,7 +9540,7 @@
       </c>
       <c r="J202" s="7">
         <f t="shared" si="12"/>
-        <v>0.11103979460847239</v>
+        <v>0.88896020539152765</v>
       </c>
       <c r="K202" s="6">
         <f t="shared" si="13"/>
@@ -9548,10 +9557,10 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C203" s="3">
         <v>3</v>
@@ -9576,7 +9585,7 @@
       </c>
       <c r="J203" s="7">
         <f t="shared" si="12"/>
-        <v>6.2822164948453607E-2</v>
+        <v>0.93717783505154639</v>
       </c>
       <c r="K203" s="6">
         <f t="shared" si="13"/>
@@ -9593,10 +9602,10 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C204" s="3">
         <v>3</v>
@@ -9621,7 +9630,7 @@
       </c>
       <c r="J204" s="7">
         <f t="shared" si="12"/>
-        <v>7.6800509878903758E-2</v>
+        <v>0.92319949012109626</v>
       </c>
       <c r="K204" s="6">
         <f t="shared" si="13"/>
@@ -9638,10 +9647,10 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C205" s="3">
         <v>3</v>
@@ -9666,7 +9675,7 @@
       </c>
       <c r="J205" s="7">
         <f t="shared" si="12"/>
-        <v>0.15642994241842612</v>
+        <v>0.84357005758157388</v>
       </c>
       <c r="K205" s="6">
         <f t="shared" si="13"/>
@@ -9683,10 +9692,10 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C206" s="3">
         <v>3</v>
@@ -9711,7 +9720,7 @@
       </c>
       <c r="J206" s="7">
         <f t="shared" si="12"/>
-        <v>0.19142125480153649</v>
+        <v>0.80857874519846351</v>
       </c>
       <c r="K206" s="6">
         <f t="shared" si="13"/>
@@ -9728,10 +9737,10 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C207" s="3">
         <v>3</v>
@@ -9756,7 +9765,7 @@
       </c>
       <c r="J207" s="7">
         <f t="shared" si="12"/>
-        <v>0.21423927178153446</v>
+        <v>0.78576072821846554</v>
       </c>
       <c r="K207" s="6">
         <f t="shared" si="13"/>
@@ -9773,10 +9782,10 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C208" s="3">
         <v>3</v>
@@ -9801,7 +9810,7 @@
       </c>
       <c r="J208" s="7">
         <f t="shared" si="12"/>
-        <v>0.12813102119460501</v>
+        <v>0.87186897880539505</v>
       </c>
       <c r="K208" s="6">
         <f t="shared" si="13"/>
@@ -9818,10 +9827,10 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C209" s="3">
         <v>3</v>
@@ -9846,7 +9855,7 @@
       </c>
       <c r="J209" s="7">
         <f t="shared" si="12"/>
-        <v>0.17488789237668162</v>
+        <v>0.82511210762331832</v>
       </c>
       <c r="K209" s="6">
         <f t="shared" si="13"/>
@@ -9863,10 +9872,10 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C210" s="3">
         <v>3</v>
@@ -9891,7 +9900,7 @@
       </c>
       <c r="J210" s="7">
         <f t="shared" si="12"/>
-        <v>9.7005208333333329E-2</v>
+        <v>0.90299479166666663</v>
       </c>
       <c r="K210" s="6">
         <f t="shared" si="13"/>
@@ -9908,10 +9917,10 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C211" s="3">
         <v>3</v>
@@ -9936,7 +9945,7 @@
       </c>
       <c r="J211" s="7">
         <f t="shared" si="12"/>
-        <v>0.10409889394925179</v>
+        <v>0.89590110605074824</v>
       </c>
       <c r="K211" s="6">
         <f t="shared" si="13"/>
@@ -9953,10 +9962,10 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C212" s="3">
         <v>3</v>
@@ -9981,7 +9990,7 @@
       </c>
       <c r="J212" s="7">
         <f t="shared" si="12"/>
-        <v>0.52010376134889758</v>
+        <v>0.47989623865110242</v>
       </c>
       <c r="K212" s="6">
         <f t="shared" si="13"/>
@@ -9998,10 +10007,10 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C213" s="3">
         <v>3</v>
@@ -10026,7 +10035,7 @@
       </c>
       <c r="J213" s="7">
         <f t="shared" si="12"/>
-        <v>0.24417852522639069</v>
+        <v>0.75582147477360928</v>
       </c>
       <c r="K213" s="6">
         <f t="shared" si="13"/>
@@ -10043,10 +10052,10 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C214" s="3">
         <v>3</v>
@@ -10071,7 +10080,7 @@
       </c>
       <c r="J214" s="7">
         <f t="shared" si="12"/>
-        <v>0.35426154847104752</v>
+        <v>0.64573845152895248</v>
       </c>
       <c r="K214" s="6">
         <f t="shared" si="13"/>
@@ -10088,10 +10097,10 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C215" s="3">
         <v>3</v>
@@ -10116,7 +10125,7 @@
       </c>
       <c r="J215" s="7">
         <f t="shared" si="12"/>
-        <v>0.11052283256121774</v>
+        <v>0.88947716743878225</v>
       </c>
       <c r="K215" s="6">
         <f t="shared" si="13"/>
@@ -10133,10 +10142,10 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C216" s="3">
         <v>3</v>
@@ -10161,7 +10170,7 @@
       </c>
       <c r="J216" s="7">
         <f t="shared" si="12"/>
-        <v>0.36466666666666664</v>
+        <v>0.63533333333333331</v>
       </c>
       <c r="K216" s="6">
         <f t="shared" si="13"/>
@@ -10178,10 +10187,10 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C217" s="3">
         <v>3</v>
@@ -10206,7 +10215,7 @@
       </c>
       <c r="J217" s="7">
         <f t="shared" si="12"/>
-        <v>0.11368142762723067</v>
+        <v>0.88631857237276934</v>
       </c>
       <c r="K217" s="6">
         <f t="shared" si="13"/>
@@ -10223,10 +10232,10 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C218" s="3">
         <v>3</v>
@@ -10251,7 +10260,7 @@
       </c>
       <c r="J218" s="7">
         <f t="shared" si="12"/>
-        <v>3.9544235924932974E-2</v>
+        <v>0.96045576407506705</v>
       </c>
       <c r="K218" s="6">
         <f t="shared" si="13"/>
@@ -10268,10 +10277,10 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C219" s="3">
         <v>3</v>
@@ -10296,7 +10305,7 @@
       </c>
       <c r="J219" s="7">
         <f t="shared" si="12"/>
-        <v>0.1553302812295618</v>
+        <v>0.84466971877043817</v>
       </c>
       <c r="K219" s="6">
         <f t="shared" si="13"/>
@@ -10313,10 +10322,10 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C220" s="3">
         <v>3</v>
@@ -10341,7 +10350,7 @@
       </c>
       <c r="J220" s="7">
         <f t="shared" si="12"/>
-        <v>0.12642521797451375</v>
+        <v>0.87357478202548622</v>
       </c>
       <c r="K220" s="6">
         <f t="shared" si="13"/>
@@ -10358,10 +10367,10 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C221" s="3">
         <v>3</v>
@@ -10386,7 +10395,7 @@
       </c>
       <c r="J221" s="7">
         <f t="shared" si="12"/>
-        <v>3.6260811709913507E-2</v>
+        <v>0.96373918829008653</v>
       </c>
       <c r="K221" s="6">
         <f t="shared" si="13"/>
@@ -10403,10 +10412,10 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C222" s="3">
         <v>4</v>
@@ -10431,7 +10440,7 @@
       </c>
       <c r="J222" s="7">
         <f t="shared" si="12"/>
-        <v>0.18293492695883135</v>
+        <v>0.8170650730411686</v>
       </c>
       <c r="K222" s="6">
         <f t="shared" si="13"/>
@@ -10448,10 +10457,10 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C223" s="3">
         <v>4</v>
@@ -10476,7 +10485,7 @@
       </c>
       <c r="J223" s="7">
         <f t="shared" si="12"/>
-        <v>0.12980132450331125</v>
+        <v>0.87019867549668872</v>
       </c>
       <c r="K223" s="6">
         <f t="shared" si="13"/>
@@ -10493,10 +10502,10 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C224" s="3">
         <v>4</v>
@@ -10521,7 +10530,7 @@
       </c>
       <c r="J224" s="7">
         <f t="shared" si="12"/>
-        <v>0.15658602150537634</v>
+        <v>0.84341397849462363</v>
       </c>
       <c r="K224" s="6">
         <f t="shared" si="13"/>
@@ -10538,10 +10547,10 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C225" s="3">
         <v>4</v>
@@ -10566,7 +10575,7 @@
       </c>
       <c r="J225" s="7">
         <f t="shared" si="12"/>
-        <v>0.10153640614562458</v>
+        <v>0.89846359385437546</v>
       </c>
       <c r="K225" s="6">
         <f t="shared" si="13"/>
@@ -10583,10 +10592,10 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C226" s="3">
         <v>4</v>
@@ -10611,7 +10620,7 @@
       </c>
       <c r="J226" s="7">
         <f t="shared" si="12"/>
-        <v>0.18209459459459459</v>
+        <v>0.81790540540540535</v>
       </c>
       <c r="K226" s="6">
         <f t="shared" si="13"/>
@@ -10628,10 +10637,10 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C227" s="3">
         <v>4</v>
@@ -10656,7 +10665,7 @@
       </c>
       <c r="J227" s="7">
         <f t="shared" si="12"/>
-        <v>0.15006915629322268</v>
+        <v>0.84993084370677729</v>
       </c>
       <c r="K227" s="6">
         <f t="shared" si="13"/>
@@ -10673,10 +10682,10 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C228" s="3">
         <v>4</v>
@@ -10701,7 +10710,7 @@
       </c>
       <c r="J228" s="7">
         <f t="shared" si="12"/>
-        <v>0.17333785617367706</v>
+        <v>0.82666214382632297</v>
       </c>
       <c r="K228" s="6">
         <f t="shared" si="13"/>
@@ -10718,10 +10727,10 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C229" s="3">
         <v>4</v>
@@ -10746,7 +10755,7 @@
       </c>
       <c r="J229" s="7">
         <f t="shared" si="12"/>
-        <v>0.1974587912087912</v>
+        <v>0.80254120879120883</v>
       </c>
       <c r="K229" s="6">
         <f t="shared" si="13"/>
@@ -10763,10 +10772,10 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C230" s="3">
         <v>4</v>
@@ -10791,7 +10800,7 @@
       </c>
       <c r="J230" s="7">
         <f t="shared" si="12"/>
-        <v>0.1756198347107438</v>
+        <v>0.82438016528925617</v>
       </c>
       <c r="K230" s="6">
         <f t="shared" si="13"/>
@@ -10808,10 +10817,10 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C231" s="3">
         <v>4</v>
@@ -10836,7 +10845,7 @@
       </c>
       <c r="J231" s="7">
         <f t="shared" si="12"/>
-        <v>0.16952054794520549</v>
+        <v>0.83047945205479445</v>
       </c>
       <c r="K231" s="6">
         <f t="shared" si="13"/>
@@ -10853,10 +10862,10 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C232" s="3">
         <v>4</v>
@@ -10881,7 +10890,7 @@
       </c>
       <c r="J232" s="7">
         <f t="shared" si="12"/>
-        <v>0.20142663043478262</v>
+        <v>0.79857336956521741</v>
       </c>
       <c r="K232" s="6">
         <f t="shared" si="13"/>
@@ -10898,10 +10907,10 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C233" s="3">
         <v>4</v>
@@ -10926,7 +10935,7 @@
       </c>
       <c r="J233" s="7">
         <f t="shared" si="12"/>
-        <v>0.24931972789115647</v>
+        <v>0.75068027210884347</v>
       </c>
       <c r="K233" s="6">
         <f t="shared" si="13"/>
@@ -10943,10 +10952,10 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C234" s="3">
         <v>4</v>
@@ -10971,7 +10980,7 @@
       </c>
       <c r="J234" s="7">
         <f t="shared" si="12"/>
-        <v>0.17254495159059474</v>
+        <v>0.8274550484094052</v>
       </c>
       <c r="K234" s="6">
         <f t="shared" si="13"/>
@@ -10988,10 +10997,10 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C235" s="3">
         <v>4</v>
@@ -11016,7 +11025,7 @@
       </c>
       <c r="J235" s="7">
         <f t="shared" si="12"/>
-        <v>0.2918710581639804</v>
+        <v>0.7081289418360196</v>
       </c>
       <c r="K235" s="6">
         <f t="shared" si="13"/>
@@ -11033,10 +11042,10 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C236" s="3">
         <v>4</v>
@@ -11061,7 +11070,7 @@
       </c>
       <c r="J236" s="7">
         <f t="shared" si="12"/>
-        <v>0.12587168758716877</v>
+        <v>0.87412831241283118</v>
       </c>
       <c r="K236" s="6">
         <f t="shared" si="13"/>
@@ -11078,10 +11087,10 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C237" s="3">
         <v>4</v>
@@ -11106,7 +11115,7 @@
       </c>
       <c r="J237" s="7">
         <f t="shared" si="12"/>
-        <v>0.29322766570605185</v>
+        <v>0.70677233429394815</v>
       </c>
       <c r="K237" s="6">
         <f t="shared" si="13"/>
@@ -11123,10 +11132,10 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C238" s="3">
         <v>4</v>
@@ -11151,7 +11160,7 @@
       </c>
       <c r="J238" s="7">
         <f t="shared" si="12"/>
-        <v>0.14028776978417265</v>
+        <v>0.85971223021582732</v>
       </c>
       <c r="K238" s="6">
         <f t="shared" si="13"/>
@@ -11168,10 +11177,10 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C239" s="3">
         <v>4</v>
@@ -11196,7 +11205,7 @@
       </c>
       <c r="J239" s="7">
         <f t="shared" si="12"/>
-        <v>0.33720930232558138</v>
+        <v>0.66279069767441867</v>
       </c>
       <c r="K239" s="6">
         <f t="shared" si="13"/>
@@ -11213,10 +11222,10 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C240" s="3">
         <v>4</v>
@@ -11241,7 +11250,7 @@
       </c>
       <c r="J240" s="7">
         <f t="shared" si="12"/>
-        <v>0.38237384506041222</v>
+        <v>0.61762615493958783</v>
       </c>
       <c r="K240" s="6">
         <f t="shared" si="13"/>
@@ -11258,10 +11267,10 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C241" s="3">
         <v>4</v>
@@ -11286,7 +11295,7 @@
       </c>
       <c r="J241" s="7">
         <f t="shared" si="12"/>
-        <v>0.2802641232575202</v>
+        <v>0.71973587674247974</v>
       </c>
       <c r="K241" s="6">
         <f t="shared" si="13"/>
@@ -11298,20 +11307,6 @@
       </c>
       <c r="M241" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K242" s="4">
-        <f>SUM(K2:K241)</f>
-        <v>0</v>
-      </c>
-      <c r="L242" s="4">
-        <f t="shared" ref="L242:M242" si="16">SUM(L2:L241)</f>
-        <v>0</v>
-      </c>
-      <c r="M242" s="4">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -11322,33 +11317,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
